--- a/biology/Botanique/Thermopsis/Thermopsis.xlsx
+++ b/biology/Botanique/Thermopsis/Thermopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thermopsis est un genre de plantes vivaces de la famille des Fabaceae de la sous-famille des Faboideae originaires d'Amérique du Nord et d'Asie orientale.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Selon ITIS
-Thermopsis macrophylla var. macrophylla Hook. &amp; Arn.
+          <t>Selon ITIS</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Thermopsis macrophylla var. macrophylla Hook. &amp; Arn.
 Thermopsis mollis var. mollis (Michx.) M.A. Curtis ex Gray
 Thermopsis rhombifolia var. rhombifolia (Nutt. ex Pursh) Nutt. ex Richards.
 Thermopsis californica S. Wats.
